--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -819,7 +819,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
